--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52751.8993211375</v>
+        <v>50545.68168974492</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059647</v>
+        <v>9134618.112059636</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4903476.913771564</v>
+        <v>4872746.287491777</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -668,7 +670,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>373.3071698245765</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>159.1000412385906</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>215.2285648127964</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>246.9390875905291</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5.08148512872441</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1117,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.609587791059592</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>28.70208043183292</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>272.3498998852572</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>407.2606697395771</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>401.3388979860635</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>137.0003097929909</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>99.63716128880066</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>383.7717122625497</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.032634771167993</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>159.1000412385906</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1850,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>405.4164878341365</v>
+        <v>386.0309950025953</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2008,13 +2010,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>113.9217099076031</v>
+        <v>108.6135018521723</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2081,19 +2083,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>375.9790740437533</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>91.12817070431785</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>146.6325435271071</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2318,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>173.2557015410961</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>204.6481106064103</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>167.7240627510922</v>
+        <v>38.03517999061373</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>22.28534392847715</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>225.4172151025916</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>28.192061969695</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2798,13 +2800,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>195.5206211098013</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>115.7469331998932</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022511</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>146.2292968796458</v>
+        <v>53.00122480006321</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3035,10 +3037,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>131.9969996527466</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>185.1447535886774</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>37.00417329754074</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>403.9469178104722</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>231.839774935007</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3661,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>130.6767931660343</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3746,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>208.0711575865186</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>35.16791248334784</v>
       </c>
     </row>
     <row r="42">
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022511</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>416.888722358365</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>28.60468344882653</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.5867542297959</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1318.974446717864</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.974446717864</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4398,7 +4400,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4407,28 +4409,28 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513678</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8519551513678</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513678</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M3" t="n">
-        <v>739.904854096271</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4492,19 +4494,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4528,10 +4530,10 @@
         <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>386.4693996828083</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="C5" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D5" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E5" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4592,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1479.780839360421</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U5" t="n">
-        <v>1220.558536677438</v>
+        <v>1144.030907328678</v>
       </c>
       <c r="V5" t="n">
-        <v>857.9415866112644</v>
+        <v>1144.030907328678</v>
       </c>
       <c r="W5" t="n">
-        <v>453.0861320222976</v>
+        <v>1144.030907328678</v>
       </c>
       <c r="X5" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="Y5" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>540.1154135929013</v>
       </c>
       <c r="C6" t="n">
         <v>433.6589524295435</v>
@@ -4635,7 +4637,7 @@
         <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4647,22 +4649,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4686,10 +4688,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>787.9050938934437</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>661.4193146726644</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4729,46 +4731,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.0776450162207</v>
+        <v>433.2298803720686</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.59981788550692</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="C8" t="n">
-        <v>38.59981788550692</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D8" t="n">
-        <v>38.59981788550692</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E8" t="n">
-        <v>38.59981788550692</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F8" t="n">
-        <v>38.59981788550692</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4817,10 +4819,10 @@
         <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q8" t="n">
         <v>1697.183430080417</v>
@@ -4829,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>742.6330759519414</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>323.4906125312521</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4936,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C10" t="n">
         <v>33.94366860160834</v>
@@ -4966,19 +4968,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4996,16 +4998,16 @@
         <v>1172.870982911978</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>897.7700739369707</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>398.3239988373705</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1291.790603831868</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="C11" t="n">
-        <v>1291.790603831868</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="D11" t="n">
-        <v>863.2089295691367</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E11" t="n">
-        <v>863.2089295691367</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F11" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
         <v>33.94366860160834</v>
@@ -5039,28 +5041,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K11" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K11" t="n">
-        <v>687.9235674375537</v>
-      </c>
       <c r="L11" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M11" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N11" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P11" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q11" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
@@ -5078,13 +5080,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X11" t="n">
-        <v>1291.790603831868</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y11" t="n">
-        <v>1291.790603831868</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5117,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J12" t="n">
-        <v>384.5656667282782</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K12" t="n">
-        <v>384.5656667282782</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L12" t="n">
-        <v>384.5656667282782</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M12" t="n">
-        <v>384.5656667282782</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N12" t="n">
-        <v>384.5656667282782</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O12" t="n">
         <v>739.9048540962709</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.6475351736976</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="C13" t="n">
-        <v>342.0858236569226</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D13" t="n">
-        <v>342.0858236569226</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E13" t="n">
-        <v>172.3278199076598</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5197,19 +5199,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K13" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L13" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M13" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N13" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O13" t="n">
         <v>1181.483761245743</v>
@@ -5233,16 +5235,16 @@
         <v>1451.303983658873</v>
       </c>
       <c r="V13" t="n">
-        <v>1451.303983658873</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.277579245164</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X13" t="n">
-        <v>933.8858245785766</v>
+        <v>646.930316449007</v>
       </c>
       <c r="Y13" t="n">
-        <v>706.4661538926848</v>
+        <v>546.2867191875922</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>435.3414999783445</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C14" t="n">
-        <v>435.3414999783445</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D14" t="n">
-        <v>435.3414999783445</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E14" t="n">
-        <v>435.3414999783445</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F14" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
         <v>33.94366860160834</v>
@@ -5279,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5315,13 +5317,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>1689.069657584288</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>1269.927194163599</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y14" t="n">
-        <v>861.6410704632523</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="15">
@@ -5334,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5343,10 +5345,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
@@ -5358,19 +5360,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M15" t="n">
         <v>804.6185656731816</v>
       </c>
       <c r="N15" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O15" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.0776450162207</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="F16" t="n">
         <v>33.94366860160834</v>
@@ -5434,25 +5436,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>437.4083829648294</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M16" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5476,10 +5478,10 @@
         <v>613.8890703687</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.0776450162207</v>
+        <v>386.4693996828083</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>443.4552724744735</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="C17" t="n">
-        <v>443.4552724744735</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="D17" t="n">
-        <v>443.4552724744735</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F17" t="n">
         <v>33.94366860160834</v>
@@ -5516,19 +5518,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L17" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M17" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N17" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O17" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P17" t="n">
         <v>1107.976466382457</v>
@@ -5558,7 +5560,7 @@
         <v>1278.040966659728</v>
       </c>
       <c r="Y17" t="n">
-        <v>869.7548429593813</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="18">
@@ -5571,7 +5573,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D18" t="n">
         <v>338.5686635760967</v>
@@ -5580,40 +5582,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I18" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J18" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>437.0247332457074</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R18" t="n">
         <v>1697.183430080417</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>884.4397056785397</v>
+        <v>372.3833729168607</v>
       </c>
       <c r="C19" t="n">
-        <v>711.8779941617646</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D19" t="n">
-        <v>546.0000013632873</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E19" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F19" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G19" t="n">
         <v>33.94366860160834</v>
@@ -5677,13 +5679,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N19" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O19" t="n">
         <v>1181.483761245743</v>
@@ -5707,16 +5709,16 @@
         <v>1418.750429333523</v>
       </c>
       <c r="V19" t="n">
-        <v>1303.677995083419</v>
+        <v>1309.039821402036</v>
       </c>
       <c r="W19" t="n">
-        <v>1303.677995083419</v>
+        <v>1037.013416988327</v>
       </c>
       <c r="X19" t="n">
-        <v>1303.677995083419</v>
+        <v>791.6216623217397</v>
       </c>
       <c r="Y19" t="n">
-        <v>1076.258324397527</v>
+        <v>564.2019916358479</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1789.095648603258</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C20" t="n">
-        <v>1350.953175786681</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="D20" t="n">
-        <v>915.0433909611256</v>
+        <v>413.7205110700461</v>
       </c>
       <c r="E20" t="n">
-        <v>481.2686461194208</v>
+        <v>413.7205110700461</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862856</v>
+        <v>413.7205110700461</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L20" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M20" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2578.012169154339</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2578.012169154339</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2215.395219088166</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>2215.395219088166</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>2215.395219088166</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>2215.395219088166</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J21" t="n">
-        <v>377.9595414948409</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K21" t="n">
-        <v>397.8892067392439</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L21" t="n">
-        <v>397.8892067392439</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>397.8892067392439</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>397.8892067392439</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>397.8892067392439</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>903.8972536055599</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C22" t="n">
-        <v>731.3355420887848</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D22" t="n">
-        <v>565.4575492903075</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E22" t="n">
-        <v>395.6995455410447</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F22" t="n">
-        <v>218.9924915028009</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2651.821657388744</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2651.821657388744</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2405.942210967199</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="U22" t="n">
-        <v>2127.509210220304</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="V22" t="n">
-        <v>1840.553702090735</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="W22" t="n">
-        <v>1568.527297677026</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="X22" t="n">
-        <v>1323.135543010439</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y22" t="n">
-        <v>1095.715872324547</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1216.583628727544</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="C23" t="n">
-        <v>778.4411559109678</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D23" t="n">
-        <v>342.5313710854123</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E23" t="n">
-        <v>342.5313710854123</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F23" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G23" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L23" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M23" t="n">
-        <v>1375.081325612185</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N23" t="n">
-        <v>2035.921380153963</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O23" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q23" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>2449.993599304466</v>
+        <v>2411.403193482845</v>
       </c>
       <c r="U23" t="n">
-        <v>2190.771296621483</v>
+        <v>2411.403193482845</v>
       </c>
       <c r="V23" t="n">
-        <v>1828.15434655531</v>
+        <v>2048.786243416671</v>
       </c>
       <c r="W23" t="n">
-        <v>1423.298891966343</v>
+        <v>2048.786243416671</v>
       </c>
       <c r="X23" t="n">
-        <v>1216.583628727544</v>
+        <v>2048.786243416671</v>
       </c>
       <c r="Y23" t="n">
-        <v>1216.583628727544</v>
+        <v>1640.500119716325</v>
       </c>
     </row>
     <row r="24">
@@ -6060,7 +6062,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I24" t="n">
         <v>79.46488968908616</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C25" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D25" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E25" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F25" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6172,25 +6174,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T25" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U25" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V25" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W25" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X25" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y25" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>743.9292024621484</v>
+        <v>892.9415207219413</v>
       </c>
       <c r="C26" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="D26" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E26" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F26" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G26" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L26" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M26" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N26" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6254,22 +6256,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U26" t="n">
-        <v>2107.11942280532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V26" t="n">
-        <v>1744.502472739146</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W26" t="n">
-        <v>1339.64701815018</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X26" t="n">
-        <v>1170.228772947056</v>
+        <v>1301.227644422288</v>
       </c>
       <c r="Y26" t="n">
-        <v>1170.228772947056</v>
+        <v>892.9415207219413</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6306,22 +6308,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P27" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q27" t="n">
         <v>1599.468199913098</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>992.5572028308845</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C28" t="n">
-        <v>819.9954913141095</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D28" t="n">
-        <v>654.1174985156322</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E28" t="n">
-        <v>484.3594947663694</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F28" t="n">
-        <v>307.6524407281256</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G28" t="n">
-        <v>142.0611657539532</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0611657539532</v>
+        <v>75.91166494123175</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6394,7 +6396,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6409,25 +6411,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.522190013251</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U28" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V28" t="n">
-        <v>1737.395032597072</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W28" t="n">
-        <v>1465.368628183364</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X28" t="n">
-        <v>1219.976873516776</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y28" t="n">
-        <v>992.5572028308845</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2046.265679067933</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C29" t="n">
-        <v>1608.123206251356</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D29" t="n">
-        <v>1172.213421425801</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E29" t="n">
-        <v>1172.213421425801</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F29" t="n">
-        <v>744.3459918350084</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G29" t="n">
         <v>342.9481604582723</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6473,40 +6475,40 @@
         <v>488.6559039815464</v>
       </c>
       <c r="N29" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2472.565249552841</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U29" t="n">
-        <v>2472.565249552841</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V29" t="n">
-        <v>2472.565249552841</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="W29" t="n">
-        <v>2472.565249552841</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="X29" t="n">
-        <v>2472.565249552841</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="Y29" t="n">
-        <v>2472.565249552841</v>
+        <v>2107.119422805321</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J30" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K30" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L30" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M30" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N30" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O30" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P30" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q30" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R30" t="n">
         <v>1716.640978007438</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.4772326516122</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C31" t="n">
-        <v>568.9155211348371</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D31" t="n">
-        <v>403.0375283363599</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E31" t="n">
-        <v>233.2795245870971</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F31" t="n">
-        <v>56.57247054885332</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6631,7 +6633,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N31" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O31" t="n">
         <v>2154.361157596754</v>
@@ -6646,25 +6648,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U31" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V31" t="n">
-        <v>1678.133681136787</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W31" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X31" t="n">
-        <v>1160.715522056491</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y31" t="n">
-        <v>933.2958513705994</v>
+        <v>1160.715522056492</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>927.4534741707607</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C32" t="n">
-        <v>489.311001354184</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D32" t="n">
-        <v>53.40121652862856</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E32" t="n">
-        <v>53.40121652862856</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
@@ -6710,16 +6712,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="N32" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6734,16 +6736,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V32" t="n">
-        <v>2307.443876365254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W32" t="n">
-        <v>1902.588421776288</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X32" t="n">
-        <v>1483.445958355598</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y32" t="n">
-        <v>1075.159834655251</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6832,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C34" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D34" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E34" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F34" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K34" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6880,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2489.401636434796</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
-        <v>2356.071333755254</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y34" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1643.366119093304</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C35" t="n">
-        <v>1643.366119093304</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D35" t="n">
-        <v>1605.988166267505</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E35" t="n">
-        <v>1172.213421425801</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F35" t="n">
         <v>744.3459918350084</v>
@@ -6929,58 +6931,58 @@
         <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K35" t="n">
-        <v>488.6559039815464</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L35" t="n">
-        <v>488.6559039815464</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M35" t="n">
-        <v>488.6559039815464</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N35" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O35" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U35" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V35" t="n">
-        <v>2048.221573682271</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W35" t="n">
-        <v>1643.366119093304</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X35" t="n">
-        <v>1643.366119093304</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="Y35" t="n">
-        <v>1643.366119093304</v>
+        <v>931.3608944498341</v>
       </c>
     </row>
     <row r="36">
@@ -7008,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>903.8972536055599</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C37" t="n">
-        <v>731.3355420887848</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D37" t="n">
-        <v>565.4575492903075</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E37" t="n">
-        <v>395.6995455410447</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F37" t="n">
-        <v>218.9924915028009</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K37" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L37" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7117,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S37" t="n">
-        <v>2651.821657388744</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T37" t="n">
-        <v>2405.942210967199</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U37" t="n">
-        <v>2127.509210220304</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V37" t="n">
-        <v>1840.553702090735</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W37" t="n">
-        <v>1568.527297677026</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X37" t="n">
-        <v>1323.135543010439</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y37" t="n">
-        <v>1095.715872324547</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1758.980365494229</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C38" t="n">
-        <v>1350.953175786681</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D38" t="n">
-        <v>915.0433909611256</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E38" t="n">
-        <v>481.2686461194208</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L38" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M38" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U38" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V38" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="W38" t="n">
-        <v>2586.408952615265</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="X38" t="n">
-        <v>2167.266489194576</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="Y38" t="n">
-        <v>1758.980365494229</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="39">
@@ -7245,16 +7247,16 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J39" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K39" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L39" t="n">
         <v>1058.729261281022</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C40" t="n">
-        <v>790.1396618744722</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D40" t="n">
-        <v>624.2616690759949</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E40" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F40" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G40" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K40" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7357,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T40" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U40" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V40" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W40" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X40" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1617.981460104281</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C41" t="n">
-        <v>1179.838987287704</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D41" t="n">
-        <v>743.9292024621484</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E41" t="n">
-        <v>743.9292024621484</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F41" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G41" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7439,22 +7441,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T41" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U41" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V41" t="n">
-        <v>1828.15434655531</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W41" t="n">
-        <v>1617.981460104281</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X41" t="n">
-        <v>1617.981460104281</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y41" t="n">
-        <v>1617.981460104281</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="42">
@@ -7482,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.4772326516122</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C43" t="n">
-        <v>568.9155211348371</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D43" t="n">
-        <v>403.0375283363599</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E43" t="n">
-        <v>233.2795245870971</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F43" t="n">
-        <v>56.57247054885332</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K43" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L43" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N43" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O43" t="n">
         <v>2154.361157596754</v>
@@ -7591,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S43" t="n">
-        <v>2489.401636434796</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.522190013251</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U43" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V43" t="n">
-        <v>1678.133681136787</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W43" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X43" t="n">
-        <v>1160.715522056491</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y43" t="n">
-        <v>933.2958513705994</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>462.9421322372</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="C44" t="n">
-        <v>462.9421322372</v>
+        <v>1668.976949988744</v>
       </c>
       <c r="D44" t="n">
-        <v>462.9421322372</v>
+        <v>1233.067165163189</v>
       </c>
       <c r="E44" t="n">
-        <v>34.36045797446834</v>
+        <v>799.2924203214839</v>
       </c>
       <c r="F44" t="n">
-        <v>34.36045797446834</v>
+        <v>371.4249907306916</v>
       </c>
       <c r="G44" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L44" t="n">
-        <v>687.9235674375537</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M44" t="n">
-        <v>687.9235674375537</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N44" t="n">
-        <v>687.9235674375537</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U44" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V44" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="W44" t="n">
-        <v>1292.327975491451</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="X44" t="n">
-        <v>1292.327975491451</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="Y44" t="n">
-        <v>884.041851791104</v>
+        <v>2107.119422805321</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.00182921349</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C46" t="n">
-        <v>940.4401176967148</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D46" t="n">
-        <v>774.5621248982375</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E46" t="n">
-        <v>604.8041211489747</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F46" t="n">
-        <v>428.0970671107308</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G46" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H46" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1516.524240083786</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T46" t="n">
-        <v>1516.524240083786</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U46" t="n">
-        <v>1516.524240083786</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V46" t="n">
-        <v>1516.524240083786</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W46" t="n">
-        <v>1516.524240083786</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X46" t="n">
-        <v>1516.524240083786</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y46" t="n">
-        <v>1304.820447932477</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538403</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.98895607821112</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8140,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K5" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8379,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8465,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,25 +8534,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O9" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P9" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8705,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>424.2958575201044</v>
@@ -8845,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O13" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -8927,7 +8929,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P14" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9006,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9325,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>20.13097499434645</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9556,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9565,10 +9567,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9577,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>667.5152066078567</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O23" t="n">
-        <v>640.5448952297625</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10039,10 +10041,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10121,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10276,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10358,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10525,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10823,22 +10825,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11060,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>316.3899266744751</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11461,13 +11463,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.60968125113078</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -22556,7 +22558,7 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50.28158547030785</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22565,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -22714,7 +22716,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>15.83994225927069</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22796,13 +22798,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.637990042895353</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>9.69099206562413</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -22951,16 +22953,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>169.8584983691369</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23033,13 +23035,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>392.7742652719091</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>372.1048196112441</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -23236,13 +23238,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>11.73605316301661</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>24.29001723772285</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23318,10 +23320,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>13.6121408004189</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>37.93967370487039</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23473,7 +23475,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>125.5083126902321</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>38.26486251750896</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23504,10 +23506,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23555,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>392.774265271909</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64.77345775114105</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -23662,7 +23664,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>15.83994225927069</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,10 +23740,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>24.02050955915126</v>
+        <v>43.40600239069244</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23896,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>170.1642431406707</v>
+        <v>175.4724511961015</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>21.40477901921543</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -24020,13 +24022,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>126.7383841513739</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>96.78810843022222</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24206,16 +24208,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>44.61085331459569</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>210.3029281800721</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24506,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>247.2269760353902</v>
+        <v>376.9158587958686</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>65.48800580459427</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>58.66873794568227</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>393.8445128103637</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>22.34593374589051</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>74.153499331904</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.7958207444081</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>275.8072779004129</v>
+        <v>369.0353499799955</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -24974,10 +24976,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>236.8918211913812</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>394.5465136797592</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>29.81413027793872</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -25451,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>168.96712510807</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>40.159301235573</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25679,22 +25681,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>192.7357424565584</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>369.0353499799953</v>
       </c>
     </row>
     <row r="42">
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444081</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.147852421693699</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>368.7791696141422</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.5587197492369</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>354962.9849598593</v>
+        <v>354962.9849598592</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354962.9849598593</v>
+        <v>354962.9849598592</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>499347.0608617212</v>
+        <v>354962.9849598593</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>499347.060861721</v>
+        <v>499347.0608617212</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>499347.0608617211</v>
+        <v>499347.0608617212</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499347.060861721</v>
+        <v>499347.0608617212</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>499347.060861721</v>
+        <v>499347.0608617212</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499347.060861721</v>
+        <v>499347.0608617212</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499347.0608617211</v>
+        <v>499347.0608617212</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354962.9849598593</v>
+        <v>499347.0608617212</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>84141.63629345148</v>
       </c>
       <c r="C2" t="n">
-        <v>84141.63629345148</v>
+        <v>84141.63629345146</v>
       </c>
       <c r="D2" t="n">
         <v>84141.63629345149</v>
       </c>
       <c r="E2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="F2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="G2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="H2" t="n">
         <v>84141.63629345148</v>
-      </c>
-      <c r="F2" t="n">
-        <v>84141.63629345148</v>
-      </c>
-      <c r="G2" t="n">
-        <v>84141.63629345145</v>
-      </c>
-      <c r="H2" t="n">
-        <v>118366.9299602668</v>
       </c>
       <c r="I2" t="n">
         <v>118366.9299602668</v>
@@ -26338,22 +26340,22 @@
         <v>118366.9299602668</v>
       </c>
       <c r="K2" t="n">
-        <v>118366.9299602668</v>
+        <v>118366.9299602669</v>
       </c>
       <c r="L2" t="n">
-        <v>118366.9299602668</v>
+        <v>118366.9299602669</v>
       </c>
       <c r="M2" t="n">
         <v>118366.9299602668</v>
       </c>
       <c r="N2" t="n">
+        <v>118366.9299602669</v>
+      </c>
+      <c r="O2" t="n">
+        <v>118366.9299602669</v>
+      </c>
+      <c r="P2" t="n">
         <v>118366.9299602668</v>
-      </c>
-      <c r="O2" t="n">
-        <v>118366.9299602668</v>
-      </c>
-      <c r="P2" t="n">
-        <v>84141.63629345146</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>64677.13252876429</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26433,7 +26435,7 @@
         <v>18764.36858177456</v>
       </c>
       <c r="H4" t="n">
-        <v>26396.92784106698</v>
+        <v>18764.36858177456</v>
       </c>
       <c r="I4" t="n">
         <v>26396.92784106698</v>
@@ -26457,7 +26459,7 @@
         <v>26396.92784106698</v>
       </c>
       <c r="P4" t="n">
-        <v>18764.36858177456</v>
+        <v>26396.92784106698</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-136238.8210852554</v>
       </c>
       <c r="C6" t="n">
-        <v>5952.479574454577</v>
+        <v>5952.479574454555</v>
       </c>
       <c r="D6" t="n">
         <v>5952.479574454585</v>
       </c>
       <c r="E6" t="n">
-        <v>39580.07957445457</v>
+        <v>39580.07957445456</v>
       </c>
       <c r="F6" t="n">
-        <v>39580.07957445457</v>
+        <v>39580.07957445455</v>
       </c>
       <c r="G6" t="n">
         <v>39580.07957445455</v>
       </c>
       <c r="H6" t="n">
-        <v>-14237.6918005753</v>
+        <v>39580.07957445458</v>
       </c>
       <c r="I6" t="n">
-        <v>51385.07755744214</v>
+        <v>-13292.05497132215</v>
       </c>
       <c r="J6" t="n">
-        <v>-59629.38778754806</v>
+        <v>-59629.38778754804</v>
       </c>
       <c r="K6" t="n">
-        <v>51385.07755744214</v>
+        <v>51385.07755744217</v>
       </c>
       <c r="L6" t="n">
-        <v>51385.07755744215</v>
+        <v>51385.07755744217</v>
       </c>
       <c r="M6" t="n">
         <v>51385.07755744214</v>
       </c>
       <c r="N6" t="n">
-        <v>51385.07755744212</v>
+        <v>51385.07755744217</v>
       </c>
       <c r="O6" t="n">
-        <v>51385.07755744215</v>
+        <v>51385.07755744217</v>
       </c>
       <c r="P6" t="n">
-        <v>39580.07957445456</v>
+        <v>51385.07755744216</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538403</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.98895607821112</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34860,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K5" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35015,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35097,22 +35099,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35185,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O9" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P9" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35334,22 +35336,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35425,13 +35427,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>424.2958575201044</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O13" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -35647,7 +35649,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P14" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35726,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,16 +36047,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36136,10 +36138,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36200,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>20.13097499434645</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,19 +36287,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>667.5152066078567</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O23" t="n">
-        <v>640.5448952297625</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -36604,13 +36606,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36759,10 +36761,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512943</v>
@@ -36841,13 +36843,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -36996,13 +36998,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37078,13 +37080,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37233,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37315,13 +37317,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,22 +37545,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37780,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,13 +37791,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>316.3899266744751</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,16 +38183,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50545.68168974492</v>
+        <v>45046.55679866674</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059636</v>
+        <v>9134618.112059638</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4872746.287491777</v>
+        <v>4872746.287491778</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>408.8128502544027</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>373.3071698245765</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>159.1000412385906</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.3413769392691074</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>246.9390875905291</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5.08148512872441</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>32.02261489161962</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>306.0087361885582</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>28.70208043183292</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>85.8171854784119</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>272.3498998852572</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>47.56278694884526</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
-        <v>407.2606697395771</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>121.782313402684</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.63716128880066</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.7717122625497</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>149.9470597982748</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>159.1000412385906</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>168.1916043726374</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>73.03788137001466</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E17" t="n">
-        <v>386.0309950025953</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>61.18958085466244</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>108.6135018521723</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>424.2958575201043</v>
@@ -2089,13 +2089,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>375.9790740437533</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>34.27435656955312</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>146.6325435271071</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>232.4996346837568</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>386.1136054937568</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>173.2557015410961</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>18.05677735225757</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>100.9670194966265</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>38.03517999061373</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>52.51170991984767</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>22.28534392847715</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>28.192061969695</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>20.46799426709923</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.7469331998932</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>82.15263531037753</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>53.00122480006321</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>141.8554506993349</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3198,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513505</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>185.1447535886774</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>343.877856316518</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>160.7884964950064</v>
+        <v>94.21878984361676</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>20.15087994390282</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>231.839774935007</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3663,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>60.80118788412189</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3742,13 +3742,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>199.9297426653792</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.16791248334784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3909,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>190.5122932219854</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3988,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>28.60468344882653</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>168.4099126885462</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4143,16 +4143,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>53.90045570694564</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697.183430080417</v>
+        <v>446.8859415858535</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.601755817686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>840.020081554954</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>411.4384072922223</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,25 +4333,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4369,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4415,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.6507809638211</v>
+        <v>552.97043790589</v>
       </c>
       <c r="C4" t="n">
-        <v>194.6507809638211</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D4" t="n">
-        <v>194.6507809638211</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>194.6507809638211</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4488,16 +4488,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
         <v>761.8145120199619</v>
@@ -4515,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8890703687</v>
+        <v>972.2087273107688</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.4693996828083</v>
+        <v>744.789056624877</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>724.8884439079882</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C5" t="n">
-        <v>724.8884439079882</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D5" t="n">
-        <v>724.8884439079882</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E5" t="n">
-        <v>724.8884439079882</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1144.030907328678</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1144.030907328678</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>1144.030907328678</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>724.8884439079882</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="Y5" t="n">
-        <v>724.8884439079882</v>
+        <v>1318.974446717864</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929013</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,7 +4634,7 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
         <v>75.67932078539587</v>
@@ -4649,19 +4649,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P6" t="n">
         <v>1224.671464618085</v>
@@ -4688,10 +4688,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934437</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>433.2298803720686</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C7" t="n">
-        <v>433.2298803720686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D7" t="n">
-        <v>433.2298803720686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E7" t="n">
-        <v>433.2298803720686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4758,19 +4758,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1238.298718014141</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>951.343209884571</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>679.3168054708626</v>
       </c>
       <c r="X7" t="n">
-        <v>433.2298803720686</v>
+        <v>433.9250508042751</v>
       </c>
       <c r="Y7" t="n">
-        <v>433.2298803720686</v>
+        <v>206.5053801183834</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>323.4906125312521</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C8" t="n">
-        <v>323.4906125312521</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="D8" t="n">
-        <v>323.4906125312521</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="E8" t="n">
-        <v>323.4906125312521</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="F8" t="n">
-        <v>323.4906125312521</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4807,25 +4807,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R8" t="n">
         <v>1697.183430080417</v>
@@ -4843,13 +4843,13 @@
         <v>771.6250763881362</v>
       </c>
       <c r="W8" t="n">
-        <v>742.6330759519414</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X8" t="n">
-        <v>323.4906125312521</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.4906125312521</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.5053801183834</v>
+        <v>286.5056871358553</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>286.5056871358553</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.627694337378</v>
       </c>
       <c r="E10" t="n">
         <v>33.94366860160834</v>
@@ -4962,22 +4962,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M10" t="n">
-        <v>453.9965675465116</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N10" t="n">
-        <v>874.0494664914149</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
         <v>1528.990655216085</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V10" t="n">
-        <v>897.7700739369707</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W10" t="n">
-        <v>625.7436695232623</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X10" t="n">
-        <v>625.7436695232623</v>
+        <v>705.7439765407341</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.3239988373705</v>
+        <v>478.3243058548424</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>873.1855120707613</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C11" t="n">
-        <v>873.1855120707613</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D11" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F11" t="n">
         <v>33.94366860160834</v>
@@ -5041,28 +5041,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L11" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M11" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N11" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O11" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P11" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q11" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
@@ -5077,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W11" t="n">
-        <v>1292.327975491451</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X11" t="n">
-        <v>873.1855120707613</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y11" t="n">
-        <v>873.1855120707613</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J12" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>546.2867191875922</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="C13" t="n">
-        <v>546.2867191875922</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="D13" t="n">
-        <v>380.4087263891149</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E13" t="n">
-        <v>210.6507226398521</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G13" t="n">
         <v>33.94366860160834</v>
@@ -5199,19 +5199,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>341.7616130750586</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M13" t="n">
-        <v>341.7616130750586</v>
+        <v>761.43086230084</v>
       </c>
       <c r="N13" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O13" t="n">
         <v>1181.483761245743</v>
@@ -5226,25 +5226,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.348475529303</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W13" t="n">
-        <v>892.3220711155946</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="X13" t="n">
-        <v>646.930316449007</v>
+        <v>603.6616682999163</v>
       </c>
       <c r="Y13" t="n">
-        <v>546.2867191875922</v>
+        <v>376.2419976140245</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>890.3927724551322</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C14" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D14" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E14" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
         <v>33.94366860160834</v>
@@ -5278,22 +5278,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J14" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K14" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L14" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M14" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N14" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1242.002652573379</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>879.3857025072055</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>879.3857025072055</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>460.2432390865162</v>
       </c>
       <c r="Y14" t="n">
-        <v>1278.040966659728</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L15" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M15" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N15" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O15" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.6507809638211</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="C16" t="n">
-        <v>194.6507809638211</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="D16" t="n">
-        <v>194.6507809638211</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E16" t="n">
-        <v>194.6507809638211</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H16" t="n">
         <v>33.94366860160834</v>
@@ -5436,52 +5436,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K16" t="n">
-        <v>395.2818083374338</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L16" t="n">
-        <v>761.43086230084</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M16" t="n">
-        <v>1181.483761245743</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N16" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O16" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1259.995652896934</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>973.0401447673644</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>701.013740353656</v>
       </c>
       <c r="X16" t="n">
-        <v>613.8890703687</v>
+        <v>701.013740353656</v>
       </c>
       <c r="Y16" t="n">
-        <v>386.4693996828083</v>
+        <v>701.013740353656</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>851.7413961748201</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C17" t="n">
-        <v>851.7413961748201</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D17" t="n">
-        <v>851.7413961748201</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E17" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F17" t="n">
         <v>33.94366860160834</v>
@@ -5530,7 +5530,7 @@
         <v>687.9235674375537</v>
       </c>
       <c r="O17" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P17" t="n">
         <v>1107.976466382457</v>
@@ -5542,25 +5542,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X17" t="n">
-        <v>1278.040966659728</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y17" t="n">
-        <v>1278.040966659728</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O18" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>372.3833729168607</v>
+        <v>442.2163838180668</v>
       </c>
       <c r="C19" t="n">
-        <v>199.8216614000857</v>
+        <v>442.2163838180668</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>442.2163838180668</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>272.4583800688041</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>95.75132603056031</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>95.75132603056031</v>
       </c>
       <c r="H19" t="n">
         <v>33.94366860160834</v>
@@ -5673,52 +5673,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M19" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N19" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T19" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U19" t="n">
-        <v>1418.750429333523</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V19" t="n">
-        <v>1309.039821402036</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W19" t="n">
-        <v>1037.013416988327</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="X19" t="n">
-        <v>791.6216623217397</v>
+        <v>634.035002537054</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.2019916358479</v>
+        <v>634.035002537054</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1270.883859595509</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C20" t="n">
-        <v>842.3021853327778</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D20" t="n">
-        <v>413.7205110700461</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E20" t="n">
-        <v>413.7205110700461</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F20" t="n">
-        <v>413.7205110700461</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
         <v>33.94366860160834</v>
@@ -5758,19 +5758,19 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L20" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M20" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N20" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O20" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P20" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q20" t="n">
         <v>1528.02936532736</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.183430080417</v>
+        <v>1319.688691389803</v>
       </c>
     </row>
     <row r="21">
@@ -5828,13 +5828,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
         <v>1159.957753041174</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>884.4397056785397</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C22" t="n">
-        <v>711.8779941617646</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D22" t="n">
-        <v>546.0000013632873</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E22" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F22" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
         <v>33.94366860160834</v>
@@ -5910,25 +5910,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K22" t="n">
-        <v>308.7021231727439</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L22" t="n">
-        <v>726.9120049407049</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M22" t="n">
-        <v>726.9120049407049</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N22" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
@@ -5937,25 +5937,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T22" t="n">
-        <v>1549.069749750006</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U22" t="n">
-        <v>1549.069749750006</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V22" t="n">
-        <v>1549.069749750006</v>
+        <v>778.7814983677961</v>
       </c>
       <c r="W22" t="n">
-        <v>1549.069749750006</v>
+        <v>506.7550939540876</v>
       </c>
       <c r="X22" t="n">
-        <v>1303.677995083419</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y22" t="n">
-        <v>1076.258324397527</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1640.500119716325</v>
+        <v>1740.966918709668</v>
       </c>
       <c r="C23" t="n">
-        <v>1640.500119716325</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D23" t="n">
-        <v>1204.590334890769</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E23" t="n">
-        <v>770.8155900490646</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F23" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G23" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H23" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K23" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L23" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M23" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N23" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O23" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
@@ -6019,22 +6019,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>2411.403193482845</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U23" t="n">
-        <v>2411.403193482845</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V23" t="n">
-        <v>2048.786243416671</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W23" t="n">
-        <v>2048.786243416671</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="X23" t="n">
-        <v>2048.786243416671</v>
+        <v>2167.266489194576</v>
       </c>
       <c r="Y23" t="n">
-        <v>1640.500119716325</v>
+        <v>2167.266489194576</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
         <v>79.46488968908616</v>
@@ -6141,10 +6141,10 @@
         <v>71.64038557131298</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>892.9415207219413</v>
+        <v>1279.690835684284</v>
       </c>
       <c r="C26" t="n">
-        <v>454.7990479053647</v>
+        <v>1279.690835684284</v>
       </c>
       <c r="D26" t="n">
-        <v>454.7990479053647</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="E26" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F26" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>488.6559039815464</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M26" t="n">
-        <v>488.6559039815464</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N26" t="n">
-        <v>632.7278666362199</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O26" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6256,22 +6256,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U26" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V26" t="n">
-        <v>1744.502472739147</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W26" t="n">
-        <v>1339.647018150181</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="X26" t="n">
-        <v>1301.227644422288</v>
+        <v>1687.976959384631</v>
       </c>
       <c r="Y26" t="n">
-        <v>892.9415207219413</v>
+        <v>1279.690835684284</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6308,22 +6308,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P27" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q27" t="n">
         <v>1599.468199913098</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>900.7186013536161</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1568898368411</v>
+        <v>847.3485218817319</v>
       </c>
       <c r="D28" t="n">
-        <v>562.2788970383638</v>
+        <v>681.4705290832546</v>
       </c>
       <c r="E28" t="n">
-        <v>392.520893289101</v>
+        <v>511.7125253339919</v>
       </c>
       <c r="F28" t="n">
-        <v>215.8138392508572</v>
+        <v>335.0054712957481</v>
       </c>
       <c r="G28" t="n">
-        <v>215.8138392508572</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H28" t="n">
-        <v>75.91166494123175</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K28" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6411,25 +6411,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T28" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U28" t="n">
-        <v>2124.330557968361</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V28" t="n">
-        <v>1837.375049838791</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W28" t="n">
-        <v>1565.348645425083</v>
+        <v>1684.540277469973</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.956890758495</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y28" t="n">
-        <v>1092.537220072603</v>
+        <v>1211.728852117494</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2078.642592532902</v>
+        <v>512.2184310291439</v>
       </c>
       <c r="C29" t="n">
-        <v>1640.500119716325</v>
+        <v>74.07595821256717</v>
       </c>
       <c r="D29" t="n">
-        <v>1204.590334890769</v>
+        <v>74.07595821256717</v>
       </c>
       <c r="E29" t="n">
-        <v>770.8155900490646</v>
+        <v>74.07595821256717</v>
       </c>
       <c r="F29" t="n">
-        <v>342.9481604582723</v>
+        <v>74.07595821256717</v>
       </c>
       <c r="G29" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6475,16 +6475,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="N29" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6493,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V29" t="n">
-        <v>2107.119422805321</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W29" t="n">
-        <v>2107.119422805321</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X29" t="n">
-        <v>2107.119422805321</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y29" t="n">
-        <v>2107.119422805321</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1043.799427915185</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C31" t="n">
-        <v>871.2377163984103</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D31" t="n">
-        <v>705.359723599933</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E31" t="n">
-        <v>535.6017198506702</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F31" t="n">
-        <v>358.8946658124264</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G31" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862855</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6633,7 +6633,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N31" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O31" t="n">
         <v>2154.361157596754</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U31" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V31" t="n">
-        <v>1678.133681136788</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W31" t="n">
-        <v>1406.107276723079</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X31" t="n">
-        <v>1160.715522056492</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y31" t="n">
-        <v>1160.715522056492</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1789.095648603258</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="C32" t="n">
-        <v>1350.953175786681</v>
+        <v>887.2175365018807</v>
       </c>
       <c r="D32" t="n">
-        <v>915.0433909611256</v>
+        <v>887.2175365018807</v>
       </c>
       <c r="E32" t="n">
-        <v>481.2686461194209</v>
+        <v>887.2175365018807</v>
       </c>
       <c r="F32" t="n">
-        <v>53.40121652862857</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>488.6559039815464</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M32" t="n">
-        <v>488.6559039815464</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N32" t="n">
-        <v>632.7278666362199</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O32" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U32" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V32" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W32" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X32" t="n">
-        <v>2250.918363010739</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="Y32" t="n">
-        <v>1842.632239310392</v>
+        <v>1325.360009318457</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>903.8972536055599</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C34" t="n">
-        <v>731.3355420887848</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D34" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E34" t="n">
-        <v>395.6995455410447</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F34" t="n">
         <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K34" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6885,25 +6885,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T34" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U34" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V34" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W34" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X34" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y34" t="n">
-        <v>1095.715872324547</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>744.3459918350084</v>
+        <v>837.0791607437289</v>
       </c>
       <c r="C35" t="n">
-        <v>744.3459918350084</v>
+        <v>837.0791607437289</v>
       </c>
       <c r="D35" t="n">
-        <v>744.3459918350084</v>
+        <v>401.1693759181734</v>
       </c>
       <c r="E35" t="n">
-        <v>744.3459918350084</v>
+        <v>401.1693759181734</v>
       </c>
       <c r="F35" t="n">
-        <v>744.3459918350084</v>
+        <v>401.1693759181734</v>
       </c>
       <c r="G35" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T35" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U35" t="n">
-        <v>2107.119422805321</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V35" t="n">
-        <v>1744.502472739147</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W35" t="n">
-        <v>1339.647018150181</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X35" t="n">
-        <v>1339.647018150181</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y35" t="n">
-        <v>931.3608944498341</v>
+        <v>1263.378731228637</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>900.7186013536161</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1568898368411</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D37" t="n">
-        <v>562.2788970383638</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E37" t="n">
-        <v>392.520893289101</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F37" t="n">
-        <v>215.8138392508572</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K37" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
@@ -7119,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T37" t="n">
-        <v>2402.763558715255</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U37" t="n">
-        <v>2124.330557968361</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V37" t="n">
-        <v>1837.375049838791</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W37" t="n">
-        <v>1565.348645425083</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.956890758495</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y37" t="n">
-        <v>1092.537220072603</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1789.512437976118</v>
+        <v>764.2836266479088</v>
       </c>
       <c r="C38" t="n">
-        <v>1351.369965159541</v>
+        <v>764.2836266479088</v>
       </c>
       <c r="D38" t="n">
-        <v>915.4601803339856</v>
+        <v>764.2836266479088</v>
       </c>
       <c r="E38" t="n">
-        <v>481.6854354922808</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F38" t="n">
-        <v>53.81800590148856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G38" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
         <v>488.6559039815464</v>
@@ -7192,34 +7192,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U38" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V38" t="n">
-        <v>2449.993599304467</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W38" t="n">
-        <v>2215.812008461025</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X38" t="n">
-        <v>2215.812008461025</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="Y38" t="n">
-        <v>2215.812008461025</v>
+        <v>1190.583197132817</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>903.8972536055599</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C40" t="n">
-        <v>731.3355420887848</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="D40" t="n">
-        <v>565.4575492903075</v>
+        <v>597.017061147763</v>
       </c>
       <c r="E40" t="n">
-        <v>395.6995455410447</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F40" t="n">
-        <v>218.9924915028009</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862857</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K40" t="n">
-        <v>414.7393562644543</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324155</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N40" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O40" t="n">
         <v>2154.361157596754</v>
@@ -7359,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T40" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U40" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V40" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W40" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X40" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y40" t="n">
-        <v>1095.715872324547</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1789.095648603258</v>
+        <v>1119.127665960511</v>
       </c>
       <c r="C41" t="n">
-        <v>1350.953175786681</v>
+        <v>1119.127665960511</v>
       </c>
       <c r="D41" t="n">
-        <v>915.0433909611256</v>
+        <v>683.2178811349554</v>
       </c>
       <c r="E41" t="n">
-        <v>481.2686461194209</v>
+        <v>683.2178811349554</v>
       </c>
       <c r="F41" t="n">
-        <v>53.40121652862857</v>
+        <v>255.3504515441631</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862857</v>
+        <v>255.3504515441631</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L41" t="n">
-        <v>632.7278666362199</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M41" t="n">
-        <v>632.7278666362199</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362199</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O41" t="n">
-        <v>1293.567921177998</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719777</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U41" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V41" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W41" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="X41" t="n">
-        <v>2250.918363010739</v>
+        <v>1545.427236445419</v>
       </c>
       <c r="Y41" t="n">
-        <v>2215.395219088166</v>
+        <v>1545.427236445419</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>903.8972536055599</v>
+        <v>815.8501487926407</v>
       </c>
       <c r="C43" t="n">
-        <v>731.3355420887848</v>
+        <v>643.2884372758656</v>
       </c>
       <c r="D43" t="n">
-        <v>565.4575492903075</v>
+        <v>477.4104444773883</v>
       </c>
       <c r="E43" t="n">
-        <v>395.6995455410447</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="F43" t="n">
-        <v>218.9924915028009</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862855</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862855</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7593,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T43" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U43" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V43" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W43" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X43" t="n">
-        <v>1323.135543010439</v>
+        <v>1235.08843819752</v>
       </c>
       <c r="Y43" t="n">
-        <v>1095.715872324547</v>
+        <v>1007.668767511628</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2107.119422805321</v>
+        <v>1361.645008385326</v>
       </c>
       <c r="C44" t="n">
-        <v>1668.976949988744</v>
+        <v>923.502535568749</v>
       </c>
       <c r="D44" t="n">
-        <v>1233.067165163189</v>
+        <v>487.5927507431934</v>
       </c>
       <c r="E44" t="n">
-        <v>799.2924203214839</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="F44" t="n">
-        <v>371.4249907306916</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G44" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N44" t="n">
-        <v>801.8819313892767</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O44" t="n">
-        <v>1462.721985931055</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P44" t="n">
-        <v>2123.562040472834</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
@@ -7678,22 +7678,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U44" t="n">
-        <v>2107.119422805321</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V44" t="n">
-        <v>2107.119422805321</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W44" t="n">
-        <v>2107.119422805321</v>
+        <v>2196.23070257058</v>
       </c>
       <c r="X44" t="n">
-        <v>2107.119422805321</v>
+        <v>2196.23070257058</v>
       </c>
       <c r="Y44" t="n">
-        <v>2107.119422805321</v>
+        <v>1787.944578870233</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>903.8972536055599</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C46" t="n">
-        <v>731.3355420887848</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D46" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E46" t="n">
-        <v>395.6995455410447</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F46" t="n">
-        <v>218.9924915028009</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862855</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7833,25 +7833,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T46" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U46" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V46" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W46" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X46" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y46" t="n">
-        <v>1095.715872324547</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,25 +8063,25 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8218,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>358.9284720888816</v>
@@ -8373,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8455,7 +8455,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>288.7962490401609</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>310.9272166398487</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K14" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P15" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L16" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -9248,7 +9248,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9877,22 +9877,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N26" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10041,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10123,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047206</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10278,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10351,22 +10351,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N32" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10828,7 +10828,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11062,10 +11062,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11299,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>316.3899266744751</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>24.94819783400823</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>50.28158547030785</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22567,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22609,10 +22609,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22707,16 +22707,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15.83994225927069</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -22755,10 +22755,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,10 +22767,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>242.5964601806525</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,25 +22786,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>9.69099206562413</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -22849,7 +22849,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>40.52414525755449</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22944,7 +22944,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -22953,16 +22953,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>169.8584983691369</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>243.6260558478061</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23035,13 +23035,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>91.37511687441054</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23083,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>372.1048196112441</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23181,13 +23181,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>82.24323823335821</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>11.73605316301661</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>374.4737878312134</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>24.29001723772285</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23317,7 +23317,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23466,25 +23466,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>121.1555237172377</v>
       </c>
       <c r="Y13" t="n">
-        <v>125.5083126902321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.26486251750896</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23506,7 +23506,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>106.6830198578785</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23661,16 +23661,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15.83994225927069</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>107.4570663667883</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>348.998693410044</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
-        <v>43.40600239069244</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -23797,7 +23797,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>77.31357171186679</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>175.4724511961015</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>9.465190568306582</v>
@@ -23977,13 +23977,13 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>21.40477901921543</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>324.7164239959586</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24177,19 +24177,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>96.78810843022222</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>51.58631836451707</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>47.64744259465414</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>44.61085331459569</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>330.5836674806734</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>376.9158587958686</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>65.48800580459427</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>393.8445128103637</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>376.9158587958695</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.153499331904</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>201.9333177378963</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>369.0353499799955</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>281.7333045955494</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.8918211913812</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25168,10 +25168,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>53.50599674645071</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.146865729424235</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>409.286117449385</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>168.96712510807</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>107.2592358276482</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>86.30911034583667</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>369.0353499799953</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>52.42554389793625</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>368.7791696141422</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>232.3969873545308</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>114.1599680048245</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>354962.9849598592</v>
+        <v>354962.9849598593</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354962.9849598592</v>
+        <v>354962.9849598593</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>499347.0608617212</v>
+        <v>499347.0608617211</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>499347.0608617212</v>
+        <v>499347.060861721</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>499347.0608617212</v>
+        <v>499347.0608617211</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499347.0608617212</v>
+        <v>499347.0608617211</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499347.0608617212</v>
+        <v>499347.0608617211</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499347.0608617212</v>
+        <v>499347.060861721</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>499347.0608617212</v>
+        <v>499347.0608617211</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="C2" t="n">
         <v>84141.63629345148</v>
       </c>
-      <c r="C2" t="n">
-        <v>84141.63629345146</v>
-      </c>
       <c r="D2" t="n">
+        <v>84141.63629345148</v>
+      </c>
+      <c r="E2" t="n">
+        <v>84141.63629345148</v>
+      </c>
+      <c r="F2" t="n">
+        <v>84141.63629345148</v>
+      </c>
+      <c r="G2" t="n">
+        <v>84141.63629345148</v>
+      </c>
+      <c r="H2" t="n">
         <v>84141.63629345149</v>
-      </c>
-      <c r="E2" t="n">
-        <v>84141.63629345146</v>
-      </c>
-      <c r="F2" t="n">
-        <v>84141.63629345146</v>
-      </c>
-      <c r="G2" t="n">
-        <v>84141.63629345146</v>
-      </c>
-      <c r="H2" t="n">
-        <v>84141.63629345148</v>
       </c>
       <c r="I2" t="n">
         <v>118366.9299602668</v>
@@ -26340,19 +26340,19 @@
         <v>118366.9299602668</v>
       </c>
       <c r="K2" t="n">
-        <v>118366.9299602669</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="L2" t="n">
-        <v>118366.9299602669</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="M2" t="n">
         <v>118366.9299602668</v>
       </c>
       <c r="N2" t="n">
-        <v>118366.9299602669</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="O2" t="n">
-        <v>118366.9299602669</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="P2" t="n">
         <v>118366.9299602668</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>64677.13252876429</v>
+        <v>64677.13252876426</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26490,28 +26490,28 @@
         <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136238.8210852554</v>
+        <v>-136978.177697171</v>
       </c>
       <c r="C6" t="n">
-        <v>5952.479574454555</v>
+        <v>5213.122962538917</v>
       </c>
       <c r="D6" t="n">
-        <v>5952.479574454585</v>
+        <v>5213.122962538924</v>
       </c>
       <c r="E6" t="n">
-        <v>39580.07957445456</v>
+        <v>38840.72296253892</v>
       </c>
       <c r="F6" t="n">
-        <v>39580.07957445455</v>
+        <v>38840.72296253892</v>
       </c>
       <c r="G6" t="n">
-        <v>39580.07957445455</v>
+        <v>38840.72296253892</v>
       </c>
       <c r="H6" t="n">
-        <v>39580.07957445458</v>
+        <v>38840.72296253893</v>
       </c>
       <c r="I6" t="n">
-        <v>-13292.05497132215</v>
+        <v>-13786.94519990336</v>
       </c>
       <c r="J6" t="n">
-        <v>-59629.38778754804</v>
+        <v>-60124.2780161293</v>
       </c>
       <c r="K6" t="n">
-        <v>51385.07755744217</v>
+        <v>50890.18732886086</v>
       </c>
       <c r="L6" t="n">
-        <v>51385.07755744217</v>
+        <v>50890.18732886086</v>
       </c>
       <c r="M6" t="n">
-        <v>51385.07755744214</v>
+        <v>50890.18732886091</v>
       </c>
       <c r="N6" t="n">
-        <v>51385.07755744217</v>
+        <v>50890.18732886086</v>
       </c>
       <c r="O6" t="n">
-        <v>51385.07755744217</v>
+        <v>50890.18732886091</v>
       </c>
       <c r="P6" t="n">
-        <v>51385.07755744216</v>
+        <v>50890.18732886089</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>243.2193490877527</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -34701,28 +34701,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34938,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>358.9284720888816</v>
@@ -35093,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35175,7 +35175,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>288.7962490401609</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>310.9272166398487</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K14" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35728,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P15" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L16" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -35968,7 +35968,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36138,10 +36138,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36290,7 +36290,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -36299,7 +36299,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36597,22 +36597,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N26" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36761,7 +36761,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36843,13 +36843,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047206</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -36998,13 +36998,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37071,22 +37071,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N32" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37235,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37472,13 +37472,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37548,7 +37548,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37782,10 +37782,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37955,7 +37955,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38019,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>316.3899266744751</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
